--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,10 +1116,8 @@
       <c r="Z6" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="AA6" t="n">
+        <v>4</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1134,6 +1132,1568 @@
       <c r="AD6" t="inlineStr">
         <is>
           <t>Morning Snack</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>36</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Morning Snack</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Morning Snack</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36</v>
+      </c>
+      <c r="I9" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>36</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>11</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Afternoon Snack</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>R00171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>សាច់ជ្រូកបីជាន់</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bacon</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>372</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>B0008</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ខ្ទឹមស</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garlic, fresh, raw </t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>94</v>
+      </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>អំបិល</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Salt, table</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>150</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>G0002</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ស្ករត្នោត</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Toddy palm, thicken sap</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>375</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>168</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N0009</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ម្រេច</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pepper, black, powder, raw</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H14" t="n">
+        <v>314</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>497</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N0020</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ប៊ីចេង</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Monosodium glutamate</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H15" t="n">
+        <v>277</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12682</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N0021</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ទឹកប្រេងខ្យង</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Oyster sauce</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>117</v>
+      </c>
+      <c r="I16" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4608</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>L0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ប្រេងសណ្តែក</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Oil, soybean</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>900</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>I0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ពងទា</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Egg, duck, whole, raw</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>58</v>
+      </c>
+      <c r="H18" t="n">
+        <v>155</v>
+      </c>
+      <c r="I18" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>47</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>237</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>80</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N0006</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ទឹកត្រី</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sauce, fish</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>41</v>
+      </c>
+      <c r="I19" t="n">
+        <v>69</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>188</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>28</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>51</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SP0001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Soup</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Caramelized Pork with Eggs</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N0025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ទឹក</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>60</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Lunch</t>
         </is>
       </c>
     </row>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +588,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A0002</t>
+          <t>B0004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -598,77 +598,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maize  (corn), white, whole grain, raw</t>
+          <t>Shallot, bulb, raw</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A0002</t>
+          <t>B0004</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ពោត</t>
+          <t>ខ្ទឹមក្រហម</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Maize  (corn), white, whole grain, raw</t>
+          <t>Shallot, bulb, raw</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>82.7</v>
       </c>
       <c r="J2" t="n">
-        <v>7.59</v>
+        <v>1.87</v>
       </c>
       <c r="K2" t="n">
-        <v>4.27</v>
+        <v>0.17</v>
       </c>
       <c r="L2" t="n">
-        <v>62.8</v>
+        <v>12.2</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>4.76</v>
+        <v>0.83</v>
       </c>
       <c r="P2" t="n">
-        <v>2.74</v>
+        <v>0.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S2" t="n">
-        <v>0.16</v>
+        <v>0.047</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>0.37</v>
       </c>
       <c r="U2" t="n">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="V2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -698,93 +698,93 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>R00171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>សាច់ជ្រូកបីជាន់</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Bacon</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>372</v>
       </c>
       <c r="I3" t="n">
-        <v>89.8</v>
+        <v>52.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.98</v>
+        <v>13.9</v>
       </c>
       <c r="K3" t="n">
-        <v>0.75</v>
+        <v>33.31</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0.49</v>
       </c>
       <c r="P3" t="n">
-        <v>0.34</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R3" t="n">
-        <v>0.043</v>
+        <v>0.479</v>
       </c>
       <c r="S3" t="n">
-        <v>0.23</v>
+        <v>0.163</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8</v>
+        <v>1.737</v>
       </c>
       <c r="U3" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>0.59</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -801,94 +801,94 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Morning Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>B0008</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>ខ្ទឹមស</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t xml:space="preserve">Garlic, fresh, raw </t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>6.66</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I4" t="n">
-        <v>89.8</v>
+        <v>77</v>
       </c>
       <c r="J4" t="n">
-        <v>0.98</v>
+        <v>4.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>13.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.34</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.043</v>
+        <v>0.24</v>
       </c>
       <c r="S4" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="U4" t="n">
-        <v>0.16</v>
+        <v>1.2</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,94 +911,94 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Morning Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>N0001</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>អំបិល</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Salt, table</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>3.33</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>89.8</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="P5" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1021,94 +1021,94 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Afternoon Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>G0002</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>ស្ករត្នោត</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Toddy palm, thicken sap</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="I6" t="n">
-        <v>89.8</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>92.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="N6" t="n">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="P6" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="S6" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U6" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="V6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1131,94 +1131,94 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Morning Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>N0009</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>ម្រេច</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Pepper, black, powder, raw</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>1.66</v>
       </c>
       <c r="H7" t="n">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="I7" t="n">
-        <v>89.8</v>
+        <v>13.3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.98</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.75</v>
+        <v>7.35</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>39.6</v>
       </c>
       <c r="M7" t="n">
-        <v>2.7</v>
+        <v>25.3</v>
       </c>
       <c r="N7" t="n">
-        <v>36</v>
+        <v>497</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="P7" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R7" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="S7" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1241,100 +1241,100 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Morning Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>N0020</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>ប៊ីចេង</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Monosodium glutamate</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>0.33</v>
       </c>
       <c r="H8" t="n">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="I8" t="n">
-        <v>89.8</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.98</v>
+        <v>50.24</v>
       </c>
       <c r="K8" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>18.9</v>
       </c>
       <c r="M8" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0.34</v>
       </c>
       <c r="P8" t="n">
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>12682</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
@@ -1351,100 +1351,100 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Morning Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>SP0001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Soup</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Caramelized Pork with Eggs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B0001</t>
+          <t>N0021</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>មើមខ្ញី</t>
+          <t>ទឹកប្រេងខ្យង</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ginger, root, mature, fresh</t>
+          <t>Oyster sauce</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="I9" t="n">
-        <v>89.8</v>
+        <v>58.3</v>
       </c>
       <c r="J9" t="n">
-        <v>0.98</v>
+        <v>2.07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>27.14</v>
       </c>
       <c r="M9" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
       <c r="P9" t="n">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.043</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>0.23</v>
+        <v>0.013</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8</v>
+        <v>0.952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.16</v>
+        <v>0.011</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>4608</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Afternoon Snack</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1483,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R00171</t>
+          <t>L0001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>សាច់ជ្រូកបីជាន់</t>
+          <t>ប្រេងសណ្តែក</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bacon</t>
+          <t>Oil, soybean</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>900</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>100</v>
       </c>
-      <c r="H10" t="n">
-        <v>372</v>
-      </c>
-      <c r="I10" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>33.31</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1518,49 +1518,47 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.479</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.737</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>56</v>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>test1</t>
@@ -1573,7 +1571,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
@@ -1595,83 +1593,81 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B0008</t>
+          <t>I0001</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ខ្ទឹមស</t>
+          <t>ពងទា</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garlic, fresh, raw </t>
+          <t>Egg, duck, whole, raw</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.66</v>
+        <v>58</v>
       </c>
       <c r="H11" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="I11" t="n">
-        <v>77</v>
+        <v>73.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.05</v>
+        <v>12.9</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
-        <v>13.4</v>
+        <v>1.7</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="R11" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AA11" t="n">
+        <v>1</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1685,7 +1681,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
@@ -1707,84 +1703,82 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N0001</t>
+          <t>N0006</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>អំបិល</t>
+          <t>ទឹកត្រី</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Salt, table</t>
+          <t>Sauce, fish</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.33</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I12" t="n">
+        <v>69</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>188</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>51</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>150</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>test1</t>
@@ -1797,7 +1791,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
@@ -1819,84 +1813,82 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G0002</t>
+          <t>N0025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ស្ករត្នោត</t>
+          <t>ទឹក</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Toddy palm, thicken sap</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>92.5</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>1</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>test1</t>
@@ -1909,104 +1901,104 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Breakfast</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SP0001</t>
+          <t>J0014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Soup</t>
+          <t>CAMBODIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Caramelized Pork with Eggs</t>
+          <t>Fish, Siamese mud carp, raw</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N0009</t>
+          <t>J0014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ម្រេច</t>
+          <t>ត្រីរៀល</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pepper, black, powder, raw</t>
+          <t>Fish, Siamese mud carp, raw</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.66</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="I14" t="n">
-        <v>13.3</v>
+        <v>74</v>
       </c>
       <c r="J14" t="n">
-        <v>9.699999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="K14" t="n">
-        <v>7.35</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>39.6</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>497</v>
+        <v>32</v>
       </c>
       <c r="O14" t="n">
-        <v>6.6</v>
+        <v>0.77</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="R14" t="n">
-        <v>0.045</v>
+        <v>0.02</v>
       </c>
       <c r="S14" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="T14" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="U14" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2020,678 +2012,6 @@
         </is>
       </c>
       <c r="AD14" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SP0001</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Soup</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Caramelized Pork with Eggs</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>N0020</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ប៊ីចេង</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Monosodium glutamate</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H15" t="n">
-        <v>277</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12682</v>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SP0001</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Soup</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Caramelized Pork with Eggs</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N0021</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ទឹកប្រេងខ្យង</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Oyster sauce</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>117</v>
-      </c>
-      <c r="I16" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>4608</v>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SP0001</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Soup</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Caramelized Pork with Eggs</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>L0001</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ប្រេងសណ្តែក</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Oil, soybean</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>10</v>
-      </c>
-      <c r="H17" t="n">
-        <v>900</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SP0001</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Soup</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Caramelized Pork with Eggs</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>I0001</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ពងទា</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Egg, duck, whole, raw</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>58</v>
-      </c>
-      <c r="H18" t="n">
-        <v>155</v>
-      </c>
-      <c r="I18" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>47</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>237</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>80</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SP0001</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Soup</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Caramelized Pork with Eggs</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N0006</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ទឹកត្រី</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sauce, fish</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>41</v>
-      </c>
-      <c r="I19" t="n">
-        <v>69</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>188</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>28</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V19" t="n">
-        <v>51</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SP0001</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Soup</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Caramelized Pork with Eggs</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>N0025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ទឹក</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>60</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,10 +1996,8 @@
       <c r="Z14" t="n">
         <v>0</v>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="AA14" t="n">
+        <v>4</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2012,6 +2010,228 @@
         </is>
       </c>
       <c r="AD14" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B0003</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Onion, large, fresh</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B0003</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ខ្តឹមបារាំង</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Onion, large, fresh</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>45</v>
+      </c>
+      <c r="I15" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V15" t="n">
+        <v>19</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>36</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V16" t="n">
+        <v>11</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -588,7 +588,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0004</t>
+          <t>B0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -598,77 +598,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shallot, bulb, raw</t>
+          <t>Ginger, root, mature, fresh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B0004</t>
+          <t>B0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ខ្ទឹមក្រហម</t>
+          <t>មើមខ្ញី</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Shallot, bulb, raw</t>
+          <t>Ginger, root, mature, fresh</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>82.7</v>
+        <v>89.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.87</v>
+        <v>0.98</v>
       </c>
       <c r="K2" t="n">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="L2" t="n">
-        <v>12.2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O2" t="n">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.43</v>
+        <v>0.043</v>
       </c>
       <c r="S2" t="n">
-        <v>0.047</v>
+        <v>0.23</v>
       </c>
       <c r="T2" t="n">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="U2" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="V2" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J0014</t>
+          <t>D0013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1918,87 +1918,87 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fish, Siamese mud carp, raw</t>
+          <t xml:space="preserve">Eggplant, purple, raw </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J0014</t>
+          <t>D0013</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ត្រីរៀល</t>
+          <t>ត្រប់វែង</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fish, Siamese mud carp, raw</t>
+          <t xml:space="preserve">Eggplant, purple, raw </t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I14" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J14" t="n">
-        <v>16.7</v>
+        <v>1.17</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>0.17</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O14" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>0.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>247</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T14" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="U14" t="n">
-        <v>0.19</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.6</v>
+        <v>8.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Morning Snack</t>
         </is>
       </c>
     </row>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,22 +1996,242 @@
       <c r="Z14" t="n">
         <v>0</v>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Morning Snack</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36</v>
+      </c>
+      <c r="I15" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>36</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>36</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V16" t="n">
+        <v>11</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>test1</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Morning Snack</t>
         </is>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>FOODID</t>
   </si>
@@ -118,6 +118,9 @@
     <t>B0008</t>
   </si>
   <si>
+    <t>A0002</t>
+  </si>
+  <si>
     <t>CAMBODIA</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t xml:space="preserve">Garlic, fresh, raw </t>
   </si>
   <si>
+    <t>Maize  (corn), white, whole grain, raw</t>
+  </si>
+  <si>
     <t>ត្រីរៀល</t>
   </si>
   <si>
@@ -145,10 +151,19 @@
     <t>ខ្ទឹមស</t>
   </si>
   <si>
+    <t>ពោត</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
   </si>
   <si>
     <t>Lunch</t>
@@ -515,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,19 +633,19 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -693,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB2">
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -710,19 +725,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -785,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -802,19 +817,19 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -877,16 +892,16 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AD4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -894,19 +909,19 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -969,16 +984,200 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AD5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>338</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>7.59</v>
+      </c>
+      <c r="K6">
+        <v>4.27</v>
+      </c>
+      <c r="L6">
+        <v>62.8</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>4.76</v>
+      </c>
+      <c r="P6">
+        <v>2.74</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.3</v>
+      </c>
+      <c r="S6">
+        <v>0.16</v>
+      </c>
+      <c r="T6">
+        <v>2.3</v>
+      </c>
+      <c r="U6">
+        <v>0.51</v>
+      </c>
+      <c r="V6">
+        <v>26</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>89.8</v>
+      </c>
+      <c r="J7">
+        <v>0.98</v>
+      </c>
+      <c r="K7">
+        <v>0.75</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>2.7</v>
+      </c>
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0.34</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.043</v>
+      </c>
+      <c r="S7">
+        <v>0.23</v>
+      </c>
+      <c r="T7">
+        <v>0.8</v>
+      </c>
+      <c r="U7">
+        <v>0.16</v>
+      </c>
+      <c r="V7">
+        <v>11</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s">
         <v>47</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>FOODID</t>
   </si>
@@ -109,70 +109,22 @@
     <t>J0014</t>
   </si>
   <si>
-    <t>B0003</t>
-  </si>
-  <si>
-    <t>B0001</t>
-  </si>
-  <si>
-    <t>B0008</t>
-  </si>
-  <si>
-    <t>A0002</t>
-  </si>
-  <si>
     <t>CAMBODIA</t>
   </si>
   <si>
     <t>Fish, Siamese mud carp, raw</t>
   </si>
   <si>
-    <t>Onion, large, fresh</t>
-  </si>
-  <si>
-    <t>Ginger, root, mature, fresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garlic, fresh, raw </t>
-  </si>
-  <si>
-    <t>Maize  (corn), white, whole grain, raw</t>
-  </si>
-  <si>
     <t>ត្រីរៀល</t>
   </si>
   <si>
-    <t>ខ្តឹមបារាំង</t>
-  </si>
-  <si>
-    <t>មើមខ្ញី</t>
-  </si>
-  <si>
-    <t>ខ្ទឹមស</t>
-  </si>
-  <si>
-    <t>ពោត</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2024-01-30</t>
   </si>
   <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
     <t>Lunch</t>
-  </si>
-  <si>
-    <t>Breakfast</t>
-  </si>
-  <si>
-    <t>Morning Snack</t>
   </si>
 </sst>
 </file>
@@ -530,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,19 +585,19 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -708,476 +660,16 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AB2">
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>87.3</v>
-      </c>
-      <c r="J3">
-        <v>1.76</v>
-      </c>
-      <c r="K3">
-        <v>0.13</v>
-      </c>
-      <c r="L3">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="M3">
-        <v>1.8</v>
-      </c>
-      <c r="N3">
-        <v>39</v>
-      </c>
-      <c r="O3">
-        <v>0.7</v>
-      </c>
-      <c r="P3">
-        <v>1.43</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.033</v>
-      </c>
-      <c r="S3">
-        <v>0.03</v>
-      </c>
-      <c r="T3">
-        <v>0.27</v>
-      </c>
-      <c r="U3">
-        <v>0.15</v>
-      </c>
-      <c r="V3">
-        <v>19</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>7.67</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
         <v>36</v>
-      </c>
-      <c r="I4">
-        <v>89.8</v>
-      </c>
-      <c r="J4">
-        <v>0.98</v>
-      </c>
-      <c r="K4">
-        <v>0.75</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>36</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>0.34</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.043</v>
-      </c>
-      <c r="S4">
-        <v>0.23</v>
-      </c>
-      <c r="T4">
-        <v>0.8</v>
-      </c>
-      <c r="U4">
-        <v>0.16</v>
-      </c>
-      <c r="V4">
-        <v>11</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>9</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>94</v>
-      </c>
-      <c r="I5">
-        <v>77</v>
-      </c>
-      <c r="J5">
-        <v>4.05</v>
-      </c>
-      <c r="K5">
-        <v>0.3</v>
-      </c>
-      <c r="L5">
-        <v>13.4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>25</v>
-      </c>
-      <c r="O5">
-        <v>1.1</v>
-      </c>
-      <c r="P5">
-        <v>0.9</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0.24</v>
-      </c>
-      <c r="S5">
-        <v>0.03</v>
-      </c>
-      <c r="T5">
-        <v>0.9</v>
-      </c>
-      <c r="U5">
-        <v>1.2</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>338</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>7.59</v>
-      </c>
-      <c r="K6">
-        <v>4.27</v>
-      </c>
-      <c r="L6">
-        <v>62.8</v>
-      </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <v>13</v>
-      </c>
-      <c r="O6">
-        <v>4.76</v>
-      </c>
-      <c r="P6">
-        <v>2.74</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0.3</v>
-      </c>
-      <c r="S6">
-        <v>0.16</v>
-      </c>
-      <c r="T6">
-        <v>2.3</v>
-      </c>
-      <c r="U6">
-        <v>0.51</v>
-      </c>
-      <c r="V6">
-        <v>26</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>89.8</v>
-      </c>
-      <c r="J7">
-        <v>0.98</v>
-      </c>
-      <c r="K7">
-        <v>0.75</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>2.7</v>
-      </c>
-      <c r="N7">
-        <v>36</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>0.34</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0.043</v>
-      </c>
-      <c r="S7">
-        <v>0.23</v>
-      </c>
-      <c r="T7">
-        <v>0.8</v>
-      </c>
-      <c r="U7">
-        <v>0.16</v>
-      </c>
-      <c r="V7">
-        <v>11</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>9</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>FOODID</t>
   </si>
@@ -109,22 +109,40 @@
     <t>J0014</t>
   </si>
   <si>
+    <t>B0001</t>
+  </si>
+  <si>
     <t>CAMBODIA</t>
   </si>
   <si>
     <t>Fish, Siamese mud carp, raw</t>
   </si>
   <si>
+    <t>Ginger, root, mature, fresh</t>
+  </si>
+  <si>
     <t>ត្រីរៀល</t>
   </si>
   <si>
+    <t>មើមខ្ញី</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2024-01-30</t>
   </si>
   <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
     <t>Lunch</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
   </si>
 </sst>
 </file>
@@ -482,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,19 +603,19 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -660,16 +678,108 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB2">
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>89.8</v>
+      </c>
+      <c r="J3">
+        <v>0.98</v>
+      </c>
+      <c r="K3">
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>2.7</v>
+      </c>
+      <c r="N3">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0.34</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.043</v>
+      </c>
+      <c r="S3">
+        <v>0.23</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.16</v>
+      </c>
+      <c r="V3">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>9</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>FOODID</t>
   </si>
@@ -106,25 +106,19 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>J0014</t>
-  </si>
-  <si>
-    <t>B0001</t>
+    <t>INTAKE_RATIO</t>
+  </si>
+  <si>
+    <t>A0002</t>
   </si>
   <si>
     <t>CAMBODIA</t>
   </si>
   <si>
-    <t>Fish, Siamese mud carp, raw</t>
-  </si>
-  <si>
-    <t>Ginger, root, mature, fresh</t>
-  </si>
-  <si>
-    <t>ត្រីរៀល</t>
-  </si>
-  <si>
-    <t>មើមខ្ញី</t>
+    <t>Maize  (corn), white, whole grain, raw</t>
+  </si>
+  <si>
+    <t>ពោត</t>
   </si>
   <si>
     <t>test1</t>
@@ -133,13 +127,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
-    <t>2024-10-07</t>
-  </si>
-  <si>
-    <t>Lunch</t>
+    <t>2024-10-13</t>
   </si>
   <si>
     <t>Breakfast</t>
@@ -500,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,10 +585,13 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -609,10 +600,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -621,165 +612,76 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="I2">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>16.7</v>
+        <v>7.59</v>
       </c>
       <c r="K2">
-        <v>4.4</v>
+        <v>4.27</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>62.8</v>
       </c>
       <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>4.76</v>
+      </c>
+      <c r="P2">
+        <v>2.74</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>32</v>
-      </c>
-      <c r="O2">
-        <v>0.77</v>
-      </c>
-      <c r="P2">
-        <v>1.53</v>
-      </c>
-      <c r="Q2">
-        <v>247</v>
-      </c>
       <c r="R2">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="S2">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="T2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="U2">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="V2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="W2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2">
-        <v>4</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
       <c r="AD2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="AE2">
         <v>100</v>
-      </c>
-      <c r="H3">
-        <v>36</v>
-      </c>
-      <c r="I3">
-        <v>89.8</v>
-      </c>
-      <c r="J3">
-        <v>0.98</v>
-      </c>
-      <c r="K3">
-        <v>0.75</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>36</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>0.34</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.043</v>
-      </c>
-      <c r="S3">
-        <v>0.23</v>
-      </c>
-      <c r="T3">
-        <v>0.8</v>
-      </c>
-      <c r="U3">
-        <v>0.16</v>
-      </c>
-      <c r="V3">
-        <v>11</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>9</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>FOODID</t>
   </si>
@@ -112,25 +112,46 @@
     <t>A0002</t>
   </si>
   <si>
+    <t>B0002</t>
+  </si>
+  <si>
+    <t>B0001</t>
+  </si>
+  <si>
     <t>CAMBODIA</t>
   </si>
   <si>
     <t>Maize  (corn), white, whole grain, raw</t>
   </si>
   <si>
+    <t>Turmeris</t>
+  </si>
+  <si>
+    <t>Ginger, root, mature, fresh</t>
+  </si>
+  <si>
     <t>ពោត</t>
   </si>
   <si>
+    <t>រមៀត</t>
+  </si>
+  <si>
+    <t>មើមខ្ញី</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>2024-10-13</t>
   </si>
   <si>
     <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Afternoon Snack</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -488,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,19 +615,19 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -669,18 +690,208 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>1.6</v>
+      </c>
+      <c r="L3">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>69</v>
+      </c>
+      <c r="O3">
+        <v>2.15</v>
+      </c>
+      <c r="P3">
+        <v>38</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.03</v>
+      </c>
+      <c r="S3">
+        <v>0.03</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>89.8</v>
+      </c>
+      <c r="J4">
+        <v>0.98</v>
+      </c>
+      <c r="K4">
+        <v>0.75</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.34</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.043</v>
+      </c>
+      <c r="S4">
+        <v>0.23</v>
+      </c>
+      <c r="T4">
+        <v>0.8</v>
+      </c>
+      <c r="U4">
+        <v>0.16</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4">
         <v>100</v>
       </c>
     </row>

--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seon/Desktop/CambodiaNAS/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044273A3-2CC6-C64A-AF27-DD0EEF98D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>FOODID</t>
   </si>
@@ -107,62 +113,17 @@
   </si>
   <si>
     <t>INTAKE_RATIO</t>
-  </si>
-  <si>
-    <t>A0002</t>
-  </si>
-  <si>
-    <t>B0002</t>
-  </si>
-  <si>
-    <t>B0001</t>
-  </si>
-  <si>
-    <t>CAMBODIA</t>
-  </si>
-  <si>
-    <t>Maize  (corn), white, whole grain, raw</t>
-  </si>
-  <si>
-    <t>Turmeris</t>
-  </si>
-  <si>
-    <t>Ginger, root, mature, fresh</t>
-  </si>
-  <si>
-    <t>ពោត</t>
-  </si>
-  <si>
-    <t>រមៀត</t>
-  </si>
-  <si>
-    <t>មើមខ្ញី</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>2024-10-13</t>
-  </si>
-  <si>
-    <t>Breakfast</t>
-  </si>
-  <si>
-    <t>Afternoon Snack</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,8 +131,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,17 +185,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -299,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -333,9 +310,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,12 +486,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
@@ -610,292 +588,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>338</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>7.59</v>
-      </c>
-      <c r="K2">
-        <v>4.27</v>
-      </c>
-      <c r="L2">
-        <v>62.8</v>
-      </c>
-      <c r="M2">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>4.76</v>
-      </c>
-      <c r="P2">
-        <v>2.74</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.3</v>
-      </c>
-      <c r="S2">
-        <v>0.16</v>
-      </c>
-      <c r="T2">
-        <v>2.3</v>
-      </c>
-      <c r="U2">
-        <v>0.51</v>
-      </c>
-      <c r="V2">
-        <v>26</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>56</v>
-      </c>
-      <c r="I3">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="J3">
-        <v>1.5</v>
-      </c>
-      <c r="K3">
-        <v>1.6</v>
-      </c>
-      <c r="L3">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>69</v>
-      </c>
-      <c r="O3">
-        <v>2.15</v>
-      </c>
-      <c r="P3">
-        <v>38</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.03</v>
-      </c>
-      <c r="S3">
-        <v>0.03</v>
-      </c>
-      <c r="T3">
-        <v>0.5</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>36</v>
-      </c>
-      <c r="I4">
-        <v>89.8</v>
-      </c>
-      <c r="J4">
-        <v>0.98</v>
-      </c>
-      <c r="K4">
-        <v>0.75</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>36</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>0.34</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.043</v>
-      </c>
-      <c r="S4">
-        <v>0.23</v>
-      </c>
-      <c r="T4">
-        <v>0.8</v>
-      </c>
-      <c r="U4">
-        <v>0.16</v>
-      </c>
-      <c r="V4">
-        <v>11</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>9</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE4">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seon/Desktop/CambodiaNAS/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044273A3-2CC6-C64A-AF27-DD0EEF98D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>FOODID</t>
   </si>
@@ -113,17 +107,50 @@
   </si>
   <si>
     <t>INTAKE_RATIO</t>
+  </si>
+  <si>
+    <t>B0003</t>
+  </si>
+  <si>
+    <t>B0008</t>
+  </si>
+  <si>
+    <t>CAMBODIA</t>
+  </si>
+  <si>
+    <t>Onion, large, fresh</t>
+  </si>
+  <si>
+    <t>Garlic, fresh, raw</t>
+  </si>
+  <si>
+    <t>ខ្តឹមបារាំង</t>
+  </si>
+  <si>
+    <t>ខ្ទឹមស</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>Morning Snack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,15 +158,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,25 +205,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,10 +321,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,12 +496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
@@ -588,8 +598,197 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>87.3</v>
+      </c>
+      <c r="J2">
+        <v>1.76</v>
+      </c>
+      <c r="K2">
+        <v>0.13</v>
+      </c>
+      <c r="L2">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="M2">
+        <v>1.8</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>0.7</v>
+      </c>
+      <c r="P2">
+        <v>1.43</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.033</v>
+      </c>
+      <c r="S2">
+        <v>0.03</v>
+      </c>
+      <c r="T2">
+        <v>0.27</v>
+      </c>
+      <c r="U2">
+        <v>0.15</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>7.67</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>94</v>
+      </c>
+      <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>4.05</v>
+      </c>
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>13.4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>1.1</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.24</v>
+      </c>
+      <c r="S3">
+        <v>0.03</v>
+      </c>
+      <c r="T3">
+        <v>0.9</v>
+      </c>
+      <c r="U3">
+        <v>1.2</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Test_SaveUserData.xlsx
+++ b/data/Test_SaveUserData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,10 +912,8 @@
           <t>test1</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="AB4" t="n">
+        <v>2</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1027,10 +1025,8 @@
           <t>test1</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="AB5" t="n">
+        <v>2</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1142,22 +1138,248 @@
           <t>test1</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>មើមខ្ញី</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>36</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0004</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Shallot, bulb, raw</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B0004</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ខ្ទឹមក្រហម</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Shallot, bulb, raw</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>63</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="V8" t="n">
+        <v>34</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Breakfast</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE8" t="n">
         <v>100</v>
       </c>
     </row>
